--- a/lab2-02.10.22/vis_func.xlsx
+++ b/lab2-02.10.22/vis_func.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp_\ifmo\факультет ПИКТ\students\магистратура\P41143_весна_2021\лабораторные_работы\ТОКГиВО\ТОКГиВО_ЛР_2\задания\решения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pugalol/itmo/5 course/theoretical foundations of computer graphics and computational optics/lab2-02.10.22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC219C0-19EC-4C61-9BC3-0B2B528203CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBBD104-7579-904A-9D17-1462E79FF303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{6498EEB0-5375-4BB9-8FDD-3B50EFD56BAE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="V" sheetId="2" r:id="rId1"/>
+    <sheet name="point1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,34 +34,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>Analytical</t>
+  </si>
+  <si>
+    <t>Lumicept</t>
+  </si>
+  <si>
+    <t>E, W/m²</t>
+  </si>
   <si>
     <t>λ</t>
   </si>
   <si>
     <t>V(λ)</t>
   </si>
+  <si>
+    <t>V(λ)*E(λ)*dλ</t>
+  </si>
+  <si>
+    <t>dλ*E(λ)</t>
+  </si>
+  <si>
+    <t>Eν, lx</t>
+  </si>
+  <si>
+    <t>∆E, %</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, lx</t>
+    </r>
+  </si>
+  <si>
+    <t>Радиометрические</t>
+  </si>
+  <si>
+    <t>Фотометрические</t>
+  </si>
+  <si>
+    <t>Аналитические значения расчитаны в скрипте analitical.py</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p(Emin)</t>
+  </si>
+  <si>
+    <t>p(Emax)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,21 +129,39 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,31 +169,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +245,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -159,7 +257,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -171,12 +269,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -206,29 +304,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -258,26 +339,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,562 +490,2095 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6243D5BA-D24F-47AD-8419-05E77F56BCA7}">
-  <dimension ref="B3:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4712CEF-B8A8-4718-A8AF-4D18ED558D6C}">
+  <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="7" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <f>0.815291889103419</f>
+        <v>0.81529188910341899</v>
+      </c>
+      <c r="G2">
+        <f>683*SUM(G4:G44)</f>
+        <v>145.12803674708783</v>
+      </c>
+      <c r="J2">
+        <f>683*SUM(J4:J44)</f>
+        <v>119.55766025855266</v>
+      </c>
+      <c r="M2">
+        <f>683*SUM(M4:M44)</f>
+        <v>40.418942630015145</v>
+      </c>
+      <c r="P2">
+        <f>683*SUM(P4:P44)</f>
+        <v>354.1345856960823</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>0.671644107326051</f>
+        <v>0.67164410732605095</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>0.227063197649499</f>
+        <v>0.227063197649499</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>380</v>
+      </c>
+      <c r="E4">
+        <f>$B$2/41</f>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G4">
+        <f>E4*$F$4</f>
+        <v>7.9540672107650642E-7</v>
+      </c>
+      <c r="I4">
+        <f>$B$3/41</f>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J4">
+        <f>I4*$F4</f>
+        <v>6.552625437327327E-7</v>
+      </c>
+      <c r="L4">
+        <f>$B$4/41</f>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M4">
+        <f>L4*$F4</f>
+        <v>2.2152507087756E-7</v>
+      </c>
+      <c r="O4">
+        <f>$B$5/41</f>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P4">
+        <f>O4*$F4</f>
+        <v>1.9409139401450634E-6</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f>1.98943678864869</f>
+        <v>1.9894367886486899</v>
+      </c>
+      <c r="C5">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>D4+10</f>
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E44" si="0">$B$2/41</f>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G44" si="1">E5*F5</f>
+        <v>2.3862201632295189E-6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I44" si="2">$B$3/41</f>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J44" si="3">I5*F5</f>
+        <v>1.9657876311981981E-6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L44" si="4">$B$4/41</f>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M44" si="5">L5*$F5</f>
+        <v>6.6457521263267997E-7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O44" si="6">$B$5/41</f>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P44" si="7">O5*$F5</f>
+        <v>5.8227418204351901E-6</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>380</v>
-      </c>
-      <c r="D4">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <f>B4+1</f>
+    </row>
+    <row r="6" spans="2:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" ref="C6:C44" si="8">C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D44" si="9">D5+10</f>
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.9540672107650639E-6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>6.552625437327327E-6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>2.2152507087755998E-6</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1.9409139401450635E-5</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <f>C4+10</f>
-        <v>390</v>
-      </c>
-      <c r="D5">
-        <v>1.2E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f t="shared" ref="B6:B44" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C44" si="1">C5+10</f>
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" si="0"/>
+      <c r="T6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
+      <c r="D7">
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F7">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.3862201632295187E-5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1.9657876311981978E-5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>6.645752126326799E-6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>5.8227418204351896E-5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <f>B2</f>
+        <v>0.81529188910341899</v>
+      </c>
+      <c r="T7">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="U7">
+        <f>ABS((T7-S7) /  T7* 100)</f>
+        <v>0.4796511096153534</v>
+      </c>
+      <c r="V7">
+        <f>G2</f>
+        <v>145.12803674708783</v>
+      </c>
+      <c r="W7">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="X7">
+        <f>(W7-V7) / V7 * 100</f>
+        <v>2.0133692416746696</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
+      <c r="D8">
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F8">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.9540672107650636E-5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>6.5526254373273268E-5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>2.2152507087755999E-5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>1.9409139401450635E-4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <f>B3</f>
+        <v>0.67164410732605095</v>
+      </c>
+      <c r="T8">
+        <v>0.69147999999999998</v>
+      </c>
+      <c r="U8">
+        <f>ABS((T8-S8) /  T8* 100)</f>
+        <v>2.8686140848540855</v>
+      </c>
+      <c r="V8">
+        <f>J2</f>
+        <v>119.55766025855266</v>
+      </c>
+      <c r="W8">
+        <v>126.17</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:X10" si="10">(W8-V8) / V8 * 100</f>
+        <v>5.5306700776409041</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
+      <c r="D9">
+        <f t="shared" si="9"/>
         <v>430</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F9">
         <v>1.1599999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.3066794911218681E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.9002613768249245E-4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>6.4242270554492397E-5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>5.6286504264206833E-4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <f>B4</f>
+        <v>0.227063197649499</v>
+      </c>
+      <c r="T9">
+        <v>0.23421600000000001</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U10" si="11">ABS((T9-S9) /  T9* 100)</f>
+        <v>3.0539341251242456</v>
+      </c>
+      <c r="V9">
+        <f>M2</f>
+        <v>40.418942630015145</v>
+      </c>
+      <c r="W9">
+        <v>42.734000000000002</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>5.7276544593863088</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
+      <c r="D10">
+        <f t="shared" si="9"/>
         <v>440</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F10">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" si="0"/>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4.5735886461899114E-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3.7677596264632126E-4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>1.27376915754597E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>1.1160255155834113E-3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <f>B5</f>
+        <v>1.9894367886486899</v>
+      </c>
+      <c r="T10">
+        <v>1.9920359999999999</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>0.13048013948091436</v>
+      </c>
+      <c r="V10">
+        <f>P2</f>
+        <v>354.1345856960823</v>
+      </c>
+      <c r="W10">
+        <v>360.83</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>1.890641178341073</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
+      <c r="D11">
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F11">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>7.5563638502268101E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.22499416546096E-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>2.1044881733368198E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>1.8438682431378103E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
+      <c r="D12">
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F12">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.1931100816147595E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>9.8289381559909898E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>3.3228760631633997E-4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>2.9113709102175948E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
+      <c r="D13">
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F13">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.8095502904490518E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>1.4907222869919667E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>5.0396953624644899E-4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>4.415579213830019E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
+      <c r="D14">
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F14">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.7640383557408599E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>2.2770373394712462E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>7.6979962129952099E-4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>6.7446759420040957E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
+      <c r="D15">
+        <f t="shared" si="9"/>
         <v>490</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F15">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f t="shared" si="0"/>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4.1361149495978324E-3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>3.4073652274102095E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1.1519303685633118E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>1.0092752488754329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
+      <c r="D16">
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F16">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f t="shared" si="0"/>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>6.4229092726927886E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>5.2912450406418163E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1.788814947336297E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>1.5672880066671387E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+      <c r="D17">
+        <f t="shared" si="9"/>
         <v>510</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F17">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f t="shared" si="0"/>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.0002239517537067E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>8.2399264874391132E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>2.7856777662853167E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>2.4406992797324171E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
+      <c r="D18">
+        <f t="shared" si="9"/>
         <v>520</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F18">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" si="0"/>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.4118469299107986E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.1630910151256004E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>3.9320700080766897E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>3.4451222437574876E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
+      <c r="D19">
+        <f t="shared" si="9"/>
         <v>530</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F19">
         <v>0.86199999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f t="shared" si="0"/>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.714101483919871E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.4120907817440388E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>4.773865277411418E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>4.1826695410126118E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
+      <c r="D20">
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F20">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f t="shared" si="0"/>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.8970450297674676E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.5628011668025674E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>5.2833729404298058E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>4.629079747245976E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
+      <c r="D21">
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F21">
         <v>0.995</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f t="shared" si="0"/>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.9785742186778095E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.6299655775351723E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>5.5104361380793046E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>4.8280234261108453E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
+      <c r="D22">
+        <f t="shared" si="9"/>
         <v>560</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F22">
         <v>0.995</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <f t="shared" si="0"/>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.9785742186778095E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1.6299655775351723E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>5.5104361380793046E-3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>4.8280234261108453E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
+      <c r="D23">
+        <f t="shared" si="9"/>
         <v>570</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F23">
         <v>0.95199999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <f t="shared" si="0"/>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.8930679961620848E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.5595248540839036E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>5.2722966868859276E-3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>4.6193751775452506E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
+      <c r="D24">
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F24">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <f t="shared" si="0"/>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.7300096183414011E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1.4251960326186934E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>4.81817029158693E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>4.2214878198155129E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
+      <c r="D25">
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F25">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <f t="shared" si="0"/>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.5053072196372882E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1.2400843640141965E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>4.1923619663578231E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>3.6731796317245324E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
+      <c r="D26">
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F26">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <f t="shared" si="0"/>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.2547541024981887E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.0336766627383857E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>3.494557993093509E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>3.0617917405788377E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
+      <c r="D27">
+        <f t="shared" si="9"/>
         <v>610</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F27">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <f t="shared" si="0"/>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.0002239517537067E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>8.2399264874391132E-3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>2.7856777662853167E-3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>2.4406992797324171E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
+      <c r="D28">
+        <f t="shared" si="9"/>
         <v>620</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F28">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <f t="shared" si="0"/>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>7.5762490182537225E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>6.2413757290542783E-3</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>2.1100263001087591E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>1.8487205279881729E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
+      <c r="D29">
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F29">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <f t="shared" si="0"/>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>5.2695695271318546E-3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>4.3411143522293543E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1.4676035945638351E-3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>1.2858554853461046E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
+      <c r="D30">
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F30">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <f t="shared" si="0"/>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>3.4799044047097148E-3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>2.8667736288307054E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>9.6917218508932486E-4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>8.4914984881346526E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
+      <c r="D31">
+        <f t="shared" si="9"/>
         <v>650</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F31">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <f t="shared" si="0"/>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.1277129788796543E-3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>1.7528273044850598E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>5.9257956459747292E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>5.1919447898880443E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
+      <c r="D32">
+        <f t="shared" si="9"/>
         <v>660</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F32">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <f t="shared" si="0"/>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.212995249641672E-3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>9.9927537919241726E-4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>3.3782573308827898E-4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>2.9598937587212216E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
+      <c r="D33">
+        <f t="shared" si="9"/>
         <v>670</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F33">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <f t="shared" si="0"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>6.3632537686120509E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>5.2421003498618615E-4</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>1.7722005670204799E-4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>1.5527311521160508E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
+      <c r="D34">
+        <f t="shared" si="9"/>
         <v>680</v>
       </c>
-      <c r="D34">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F34">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <f t="shared" si="0"/>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>3.3804785645751522E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>2.784865810864114E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>9.4148155122962998E-5</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>8.2488842456165197E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
+      <c r="D35">
+        <f t="shared" si="9"/>
         <v>690</v>
       </c>
-      <c r="D35">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F35">
         <v>8.2000000000000007E-3</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <f t="shared" si="0"/>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.6305837782068381E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1.3432882146521022E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>4.54126395298998E-5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>3.9788735772973801E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
+      <c r="D36">
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
-      <c r="D36">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F36">
         <v>4.1000000000000003E-3</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <f t="shared" si="0"/>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>8.1529188910341903E-5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>6.7164410732605109E-5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>2.27063197649499E-5</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>1.9894367886486901E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
+      <c r="D37">
+        <f t="shared" si="9"/>
         <v>710</v>
       </c>
-      <c r="D37">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F37">
         <v>2.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <f t="shared" si="0"/>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>4.1758852856516578E-5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>3.4401283545968461E-5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1.1630066221071899E-5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>1.0189798185761582E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
+      <c r="D38">
+        <f t="shared" si="9"/>
         <v>720</v>
       </c>
-      <c r="D38">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F38">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <f t="shared" si="0"/>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1.9885168026912659E-5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1.6381563593318317E-5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>5.5381267719389997E-6</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="7"/>
+        <v>4.8522848503626587E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
+      <c r="D39">
+        <f t="shared" si="9"/>
         <v>730</v>
       </c>
-      <c r="D39">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F39">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <f t="shared" si="0"/>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>9.9425840134563295E-6</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>8.1907817966591585E-6</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>2.7690633859694999E-6</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>2.4261424251813293E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
+      <c r="D40">
+        <f t="shared" si="9"/>
         <v>740</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F40" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <f t="shared" si="0"/>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>3.977033605382532E-6</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>3.2763127186636635E-6</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>1.1076253543877999E-6</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>9.7045697007253177E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
+      <c r="D41">
+        <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="D41">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F41">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <f t="shared" si="0"/>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1.988516802691266E-6</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>1.6381563593318317E-6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>5.5381267719389995E-7</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>4.8522848503626589E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
+      <c r="D42">
+        <f t="shared" si="9"/>
         <v>760</v>
       </c>
-      <c r="D42">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F42">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <f t="shared" si="0"/>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1.988516802691266E-6</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>1.6381563593318317E-6</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>5.5381267719389995E-7</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>4.8522848503626589E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
+      <c r="D43">
+        <f t="shared" si="9"/>
         <v>770</v>
       </c>
-      <c r="D43">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <f t="shared" si="0"/>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
+      <c r="D44">
+        <f t="shared" si="9"/>
         <v>780</v>
       </c>
-      <c r="D44">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.9885168026912658E-2</v>
+      </c>
+      <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="3"/>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>1.6381563593318316E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>5.5381267719389997E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>4.8522848503626585E-2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="S3:X3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>